--- a/manual-testing/roadanalysis-manual-testing.xlsx
+++ b/manual-testing/roadanalysis-manual-testing.xlsx
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="272">
   <si>
-    <t>Test Report</t>
-  </si>
-  <si>
     <t>Created By</t>
   </si>
   <si>
@@ -1232,6 +1229,9 @@
   </si>
   <si>
     <t xml:space="preserve">PASSED                                                                                                                                                          9                         </t>
+  </si>
+  <si>
+    <t>Final Task</t>
   </si>
 </sst>
 </file>
@@ -2669,6 +2669,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="35" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="35" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="35" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="35" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="35" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="35" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2705,92 +2792,23 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="40" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="41" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="42" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="35" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="35" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="35" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="35" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="35" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="35" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2816,23 +2834,11 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2843,9 +2849,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2857,9 +2860,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3738,7 +3738,7 @@
   <dimension ref="B1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="2" spans="2:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="96" t="s">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="C2" s="97"/>
       <c r="D2" s="97"/>
@@ -3768,7 +3768,7 @@
     <row r="3" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="98" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="98"/>
       <c r="E3" s="99"/>
@@ -3778,7 +3778,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3789,7 +3789,7 @@
     </row>
     <row r="6" spans="2:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="100" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="100"/>
       <c r="D6" s="100"/>
@@ -3797,20 +3797,20 @@
     </row>
     <row r="7" spans="2:6" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="101" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="101"/>
       <c r="E7" s="101"/>
     </row>
     <row r="8" spans="2:6" ht="274.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D8" s="103"/>
       <c r="E8" s="104"/>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="3" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="183" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="183"/>
     </row>
@@ -3898,49 +3898,49 @@
     </row>
     <row r="7" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="184" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="81" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="184"/>
       <c r="C8" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="185"/>
       <c r="C9" s="89" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="87" t="s">
-        <v>10</v>
-      </c>
       <c r="D10" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="88" t="s">
-        <v>56</v>
-      </c>
       <c r="F10" s="88" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" s="29">
         <v>7</v>
@@ -3954,10 +3954,10 @@
     </row>
     <row r="12" spans="2:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="93" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" s="31">
         <v>3</v>
@@ -3971,7 +3971,7 @@
     </row>
     <row r="13" spans="2:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="92">
@@ -3988,7 +3988,7 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="187" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C14" s="188"/>
       <c r="D14" s="187"/>
@@ -4041,121 +4041,121 @@
   <sheetData>
     <row r="2" spans="2:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="16"/>
     </row>
     <row r="10" spans="2:12" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="D10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="G10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="H10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="I10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="J10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="K10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="L10" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="172.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="F11" s="18" t="s">
+      <c r="G11" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>71</v>
-      </c>
       <c r="H11" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="105" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="105"/>
       <c r="D12" s="105"/>
@@ -4216,53 +4216,53 @@
   <sheetData>
     <row r="2" spans="2:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="16"/>
     </row>
     <row r="10" spans="2:12" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="106" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="107"/>
       <c r="D10" s="107"/>
@@ -4277,273 +4277,273 @@
     </row>
     <row r="11" spans="2:12" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="G11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="H11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="I11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="J11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="K11" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="15" t="s">
+      <c r="L11" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C12" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E12" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="H12" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>80</v>
-      </c>
       <c r="I12" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L12" s="17"/>
     </row>
     <row r="13" spans="2:12" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="18" t="s">
+      <c r="H13" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="18" t="s">
-        <v>86</v>
-      </c>
       <c r="I13" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L13" s="17"/>
     </row>
     <row r="14" spans="2:12" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="F14" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>89</v>
-      </c>
       <c r="H14" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L14" s="17"/>
     </row>
     <row r="15" spans="2:12" ht="137.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>257</v>
-      </c>
       <c r="H15" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L15" s="17"/>
     </row>
     <row r="16" spans="2:12" ht="154.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C16" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="E16" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="F16" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="18" t="s">
+      <c r="H16" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="H16" s="18" t="s">
-        <v>99</v>
-      </c>
       <c r="I16" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L16" s="17"/>
     </row>
     <row r="17" spans="2:12" ht="133.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="18" t="s">
+      <c r="F17" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="18" t="s">
+      <c r="H17" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="18" t="s">
-        <v>103</v>
-      </c>
       <c r="I17" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L17" s="17"/>
     </row>
     <row r="18" spans="2:12" ht="153" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="D18" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="F18" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>109</v>
-      </c>
       <c r="I18" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L18" s="17"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C19" s="105"/>
       <c r="D19" s="105"/>
@@ -4597,67 +4597,67 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="16"/>
     </row>
     <row r="11" spans="1:4" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" s="37">
         <v>7</v>
@@ -4665,10 +4665,10 @@
     </row>
     <row r="13" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D13" s="17">
         <v>3</v>
@@ -4676,7 +4676,7 @@
     </row>
     <row r="14" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="110" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C14" s="111"/>
       <c r="D14" s="112"/>
@@ -4715,347 +4715,347 @@
   <sheetData>
     <row r="2" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="16"/>
     </row>
     <row r="10" spans="2:13" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="G10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="H10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="I10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="J10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="K10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="L10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="M10" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>220</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>111</v>
-      </c>
       <c r="I11" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M11" s="17"/>
     </row>
     <row r="12" spans="2:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G12" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="18" t="s">
-        <v>115</v>
-      </c>
       <c r="I12" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="2:13" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D13" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="G13" s="18" t="s">
+      <c r="H13" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="I13" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="I13" s="18" t="s">
-        <v>119</v>
-      </c>
       <c r="J13" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="2:13" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D14" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="18" t="s">
+      <c r="G14" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>216</v>
-      </c>
       <c r="H14" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="2:13" ht="144" x14ac:dyDescent="0.3">
       <c r="B15" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="36" t="s">
         <v>120</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="M15" s="36" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B16" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="18" t="s">
+      <c r="G16" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="I16" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="H16" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="J16" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M16" s="36"/>
     </row>
     <row r="17" spans="2:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="B17" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="G17" s="18" t="s">
+      <c r="I17" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="H17" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>124</v>
-      </c>
       <c r="J17" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M17" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="113" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C18" s="114"/>
       <c r="D18" s="114"/>
@@ -5117,201 +5117,201 @@
   <sheetData>
     <row r="2" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="16"/>
     </row>
     <row r="10" spans="2:13" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="F10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="G10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="H10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="I10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="J10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="K10" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="L10" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="M10" s="15" t="s">
         <v>24</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="178.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="I11" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>143</v>
-      </c>
       <c r="J11" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M11" s="17"/>
     </row>
     <row r="12" spans="2:13" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="F12" s="18" t="s">
+      <c r="G12" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="18" t="s">
+      <c r="I12" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>147</v>
-      </c>
       <c r="J12" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M12" s="17"/>
     </row>
     <row r="13" spans="2:13" ht="175.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="F13" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="18" t="s">
+      <c r="I13" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="J13" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="I13" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="J13" s="39" t="s">
+      <c r="K13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="40" t="s">
         <v>152</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="40" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="105"/>
       <c r="D14" s="105"/>
@@ -5373,112 +5373,112 @@
   <sheetData>
     <row r="2" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="85"/>
     </row>
     <row r="6" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="16"/>
     </row>
     <row r="9" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:9" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="140" t="s">
-        <v>251</v>
-      </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="142"/>
+      <c r="B10" s="128" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
     </row>
     <row r="11" spans="2:9" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="140" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="D11" s="131" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="132"/>
+      <c r="H11" s="132"/>
+      <c r="I11" s="133"/>
+    </row>
+    <row r="12" spans="2:9" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="141"/>
+      <c r="C12" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="143" t="s">
-        <v>238</v>
-      </c>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
-      <c r="I11" s="145"/>
-    </row>
-    <row r="12" spans="2:9" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="152"/>
-      <c r="C12" s="41" t="s">
+      <c r="D12" s="134" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="136"/>
+    </row>
+    <row r="13" spans="2:9" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="141"/>
+      <c r="C13" s="70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="137" t="s">
+        <v>127</v>
+      </c>
+      <c r="E13" s="138"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="139"/>
+    </row>
+    <row r="14" spans="2:9" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="142"/>
+      <c r="C14" s="84" t="s">
         <v>158</v>
-      </c>
-      <c r="D12" s="134" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="147"/>
-    </row>
-    <row r="13" spans="2:9" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="152"/>
-      <c r="C13" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="148" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="149"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="149"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="150"/>
-    </row>
-    <row r="14" spans="2:9" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="153"/>
-      <c r="C14" s="84" t="s">
-        <v>159</v>
       </c>
       <c r="D14" s="82">
         <v>45077.347916666666</v>
@@ -5490,34 +5490,34 @@
       <c r="I14" s="83"/>
     </row>
     <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="119" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="119" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="D15" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="E15" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="F15" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="G15" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="H15" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="47" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="16" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="132"/>
-      <c r="C16" s="133"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
@@ -5528,30 +5528,30 @@
       <c r="I16" s="48"/>
     </row>
     <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="132"/>
-      <c r="C17" s="131" t="s">
+      <c r="B17" s="119"/>
+      <c r="C17" s="121" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="E17" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="F17" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="G17" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="G17" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>171</v>
-      </c>
       <c r="I17" s="50"/>
     </row>
     <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="132"/>
-      <c r="C18" s="133"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="120"/>
       <c r="D18" s="48"/>
       <c r="E18" s="48"/>
       <c r="F18" s="48" t="b">
@@ -5562,21 +5562,21 @@
       <c r="I18" s="50"/>
     </row>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="132"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="154"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="156"/>
+        <v>49</v>
+      </c>
+      <c r="D19" s="122"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="124"/>
     </row>
     <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="132"/>
+      <c r="B20" s="119"/>
       <c r="C20" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" s="74"/>
       <c r="E20" s="75"/>
@@ -5586,224 +5586,224 @@
       <c r="I20" s="76"/>
     </row>
     <row r="21" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="133"/>
+      <c r="B21" s="120"/>
       <c r="C21" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="157" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="159"/>
+        <v>21</v>
+      </c>
+      <c r="D21" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="127"/>
     </row>
     <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="131" t="s">
+      <c r="B22" s="121" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="121" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="131" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="50" t="s">
+      <c r="E22" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="F22" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="G22" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="H22" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="I22" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="I22" s="50" t="s">
+    </row>
+    <row r="23" spans="2:9" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="119"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" s="51" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="132"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="48" t="s">
-        <v>189</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="48" t="s">
+      <c r="H23" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" s="51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="119"/>
+      <c r="C24" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="134" t="s">
         <v>191</v>
       </c>
-      <c r="G23" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="H23" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="I23" s="51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="132"/>
-      <c r="C24" s="41" t="s">
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="144"/>
+    </row>
+    <row r="25" spans="2:9" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="119"/>
+      <c r="C25" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="D24" s="134" t="s">
+      <c r="D25" s="134" t="s">
+        <v>238</v>
+      </c>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="144"/>
+    </row>
+    <row r="26" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="120"/>
+      <c r="C26" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="134" t="s">
+        <v>187</v>
+      </c>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="144"/>
+    </row>
+    <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="121" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="134" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="144"/>
+    </row>
+    <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="119"/>
+      <c r="C28" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" s="134" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="144"/>
+    </row>
+    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="119"/>
+      <c r="C29" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="136"/>
-    </row>
-    <row r="25" spans="2:9" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="132"/>
-      <c r="C25" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="134" t="s">
-        <v>239</v>
-      </c>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="136"/>
-    </row>
-    <row r="26" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="133"/>
-      <c r="C26" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="D26" s="134" t="s">
-        <v>188</v>
-      </c>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="136"/>
-    </row>
-    <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="131" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="D27" s="134" t="s">
-        <v>236</v>
-      </c>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="136"/>
-    </row>
-    <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="132"/>
-      <c r="C28" s="41" t="s">
+      <c r="D29" s="134" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="144"/>
+    </row>
+    <row r="30" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="120"/>
+      <c r="C30" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="134" t="s">
-        <v>194</v>
-      </c>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="136"/>
-    </row>
-    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="132"/>
-      <c r="C29" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="D29" s="134" t="s">
-        <v>202</v>
-      </c>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="136"/>
-    </row>
-    <row r="30" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="133"/>
-      <c r="C30" s="41" t="s">
+      <c r="D30" s="145" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="137" t="s">
-        <v>187</v>
-      </c>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="139"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="147"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="124" t="s">
-        <v>231</v>
-      </c>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="126"/>
+      <c r="B31" s="149" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="150"/>
+      <c r="D31" s="153" t="s">
+        <v>230</v>
+      </c>
+      <c r="E31" s="154"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="155"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="122"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="129"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="158"/>
     </row>
     <row r="33" spans="2:9" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="122"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="129"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="157"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="158"/>
     </row>
     <row r="34" spans="2:9" ht="2.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="122"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="129"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="158"/>
     </row>
     <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="122"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="127"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="129"/>
+      <c r="B35" s="151"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="158"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="113" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C36" s="114"/>
       <c r="D36" s="114"/>
@@ -5827,102 +5827,102 @@
       <c r="D39" s="59"/>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B59" s="119" t="s">
-        <v>224</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="119"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="119"/>
+      <c r="B59" s="148" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" s="148"/>
+      <c r="D59" s="148"/>
+      <c r="E59" s="148"/>
+      <c r="F59" s="148"/>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B60" s="119"/>
-      <c r="C60" s="119"/>
-      <c r="D60" s="119"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="119"/>
+      <c r="B60" s="148"/>
+      <c r="C60" s="148"/>
+      <c r="D60" s="148"/>
+      <c r="E60" s="148"/>
+      <c r="F60" s="148"/>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B61" s="119"/>
-      <c r="C61" s="119"/>
-      <c r="D61" s="119"/>
-      <c r="E61" s="119"/>
-      <c r="F61" s="119"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="148"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B85" s="119" t="s">
-        <v>223</v>
-      </c>
-      <c r="C85" s="119"/>
-      <c r="D85" s="119"/>
-      <c r="E85" s="119"/>
-      <c r="F85" s="119"/>
+      <c r="B85" s="148" t="s">
+        <v>222</v>
+      </c>
+      <c r="C85" s="148"/>
+      <c r="D85" s="148"/>
+      <c r="E85" s="148"/>
+      <c r="F85" s="148"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B86" s="119"/>
-      <c r="C86" s="119"/>
-      <c r="D86" s="119"/>
-      <c r="E86" s="119"/>
-      <c r="F86" s="119"/>
+      <c r="B86" s="148"/>
+      <c r="C86" s="148"/>
+      <c r="D86" s="148"/>
+      <c r="E86" s="148"/>
+      <c r="F86" s="148"/>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B87" s="119"/>
-      <c r="C87" s="119"/>
-      <c r="D87" s="119"/>
-      <c r="E87" s="119"/>
-      <c r="F87" s="119"/>
+      <c r="B87" s="148"/>
+      <c r="C87" s="148"/>
+      <c r="D87" s="148"/>
+      <c r="E87" s="148"/>
+      <c r="F87" s="148"/>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B114" s="119" t="s">
-        <v>226</v>
-      </c>
-      <c r="C114" s="119"/>
-      <c r="D114" s="119"/>
-      <c r="E114" s="119"/>
-      <c r="F114" s="119"/>
+      <c r="B114" s="148" t="s">
+        <v>225</v>
+      </c>
+      <c r="C114" s="148"/>
+      <c r="D114" s="148"/>
+      <c r="E114" s="148"/>
+      <c r="F114" s="148"/>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B115" s="119"/>
-      <c r="C115" s="119"/>
-      <c r="D115" s="119"/>
-      <c r="E115" s="119"/>
-      <c r="F115" s="119"/>
+      <c r="B115" s="148"/>
+      <c r="C115" s="148"/>
+      <c r="D115" s="148"/>
+      <c r="E115" s="148"/>
+      <c r="F115" s="148"/>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B116" s="119"/>
-      <c r="C116" s="119"/>
-      <c r="D116" s="119"/>
-      <c r="E116" s="119"/>
-      <c r="F116" s="119"/>
+      <c r="B116" s="148"/>
+      <c r="C116" s="148"/>
+      <c r="D116" s="148"/>
+      <c r="E116" s="148"/>
+      <c r="F116" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D26:I26"/>
     <mergeCell ref="B85:F87"/>
     <mergeCell ref="B114:F116"/>
     <mergeCell ref="B31:C35"/>
     <mergeCell ref="D31:I35"/>
     <mergeCell ref="B36:I37"/>
     <mergeCell ref="B59:F61"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D21:I21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D30" r:id="rId1"/>
@@ -5959,99 +5959,99 @@
   <sheetData>
     <row r="2" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="16"/>
     </row>
     <row r="10" spans="2:9" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="168" t="s">
+      <c r="B10" s="160" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="161"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="162"/>
+    </row>
+    <row r="11" spans="2:9" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="163" t="s">
         <v>197</v>
       </c>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="170"/>
-    </row>
-    <row r="11" spans="2:9" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="132" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" s="41" t="s">
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="165"/>
+    </row>
+    <row r="12" spans="2:9" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="119"/>
+      <c r="C12" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="D11" s="171" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="173"/>
-    </row>
-    <row r="12" spans="2:9" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="132"/>
-      <c r="C12" s="41" t="s">
-        <v>158</v>
-      </c>
       <c r="D12" s="134" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="147"/>
+        <v>57</v>
+      </c>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="136"/>
     </row>
     <row r="13" spans="2:9" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="132"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13" s="72"/>
       <c r="F13" s="72"/>
@@ -6060,48 +6060,48 @@
       <c r="I13" s="73"/>
     </row>
     <row r="14" spans="2:9" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="133"/>
+      <c r="B14" s="120"/>
       <c r="C14" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="137">
+        <v>45077.364583333336</v>
+      </c>
+      <c r="E14" s="138"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="139"/>
+    </row>
+    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="121" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="148">
-        <v>45077.364583333336</v>
-      </c>
-      <c r="E14" s="149"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="149"/>
-      <c r="H14" s="149"/>
-      <c r="I14" s="150"/>
-    </row>
-    <row r="15" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="131" t="s">
+      <c r="C15" s="121" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="D15" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="D15" s="42" t="s">
+      <c r="E15" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="F15" s="44" t="s">
         <v>163</v>
       </c>
-      <c r="F15" s="44" t="s">
+      <c r="G15" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="H15" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="H15" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="47" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="16" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="132"/>
-      <c r="C16" s="133"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="48"/>
       <c r="E16" s="48"/>
       <c r="F16" s="48"/>
@@ -6112,30 +6112,30 @@
       <c r="I16" s="48"/>
     </row>
     <row r="17" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="132"/>
-      <c r="C17" s="131" t="s">
+      <c r="B17" s="119"/>
+      <c r="C17" s="121" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="E17" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="E17" s="44" t="s">
+      <c r="F17" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="G17" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H17" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="G17" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="H17" s="49" t="s">
-        <v>171</v>
-      </c>
       <c r="I17" s="50"/>
     </row>
     <row r="18" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="132"/>
-      <c r="C18" s="133"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="120"/>
       <c r="D18" s="48"/>
       <c r="E18" s="48" t="b">
         <v>1</v>
@@ -6146,21 +6146,21 @@
       <c r="I18" s="50"/>
     </row>
     <row r="19" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="132"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="154"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="156"/>
+        <v>49</v>
+      </c>
+      <c r="D19" s="122"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="124"/>
     </row>
     <row r="20" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="132"/>
+      <c r="B20" s="119"/>
       <c r="C20" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D20" s="74"/>
       <c r="E20" s="75"/>
@@ -6170,224 +6170,224 @@
       <c r="I20" s="76"/>
     </row>
     <row r="21" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="133"/>
+      <c r="B21" s="120"/>
       <c r="C21" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="157" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="158"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="159"/>
+        <v>21</v>
+      </c>
+      <c r="D21" s="125" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="126"/>
+      <c r="I21" s="127"/>
     </row>
     <row r="22" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="131" t="s">
+      <c r="B22" s="121" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="121" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="C22" s="131" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="50" t="s">
+      <c r="E22" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="E22" s="50" t="s">
+      <c r="F22" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="G22" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="H22" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="I22" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="I22" s="50" t="s">
+    </row>
+    <row r="23" spans="2:9" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="119"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" s="51" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="132"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="48" t="s">
+      <c r="H23" s="51" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" s="51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="119"/>
+      <c r="C24" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="134" t="s">
         <v>267</v>
       </c>
-      <c r="E23" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="F23" s="48" t="s">
-        <v>191</v>
-      </c>
-      <c r="G23" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="H23" s="51" t="s">
-        <v>180</v>
-      </c>
-      <c r="I23" s="51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="132"/>
-      <c r="C24" s="41" t="s">
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="144"/>
+    </row>
+    <row r="25" spans="2:9" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="119"/>
+      <c r="C25" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="D24" s="134" t="s">
+      <c r="D25" s="134" t="s">
         <v>268</v>
       </c>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="135"/>
-      <c r="H24" s="135"/>
-      <c r="I24" s="136"/>
-    </row>
-    <row r="25" spans="2:9" ht="22.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="132"/>
-      <c r="C25" s="41" t="s">
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="144"/>
+    </row>
+    <row r="26" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="120"/>
+      <c r="C26" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="D25" s="134" t="s">
-        <v>269</v>
-      </c>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="136"/>
-    </row>
-    <row r="26" spans="2:9" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="133"/>
-      <c r="C26" s="41" t="s">
+      <c r="D26" s="134" t="s">
+        <v>170</v>
+      </c>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="144"/>
+    </row>
+    <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="121" t="s">
         <v>183</v>
       </c>
-      <c r="D26" s="134" t="s">
-        <v>171</v>
-      </c>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="136"/>
-    </row>
-    <row r="27" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="131" t="s">
+      <c r="C27" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="D27" s="134" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="144"/>
+    </row>
+    <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="119"/>
+      <c r="C28" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="C27" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="D27" s="134" t="s">
-        <v>236</v>
-      </c>
-      <c r="E27" s="135"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="135"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="136"/>
-    </row>
-    <row r="28" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="132"/>
-      <c r="C28" s="41" t="s">
+      <c r="D28" s="134" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="144"/>
+    </row>
+    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="119"/>
+      <c r="C29" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="134" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="144"/>
+    </row>
+    <row r="30" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="120"/>
+      <c r="C30" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="D28" s="134" t="s">
-        <v>194</v>
-      </c>
-      <c r="E28" s="135"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="136"/>
-    </row>
-    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="132"/>
-      <c r="C29" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="D29" s="134" t="s">
-        <v>202</v>
-      </c>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="136"/>
-    </row>
-    <row r="30" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="133"/>
-      <c r="C30" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="D30" s="137" t="s">
-        <v>240</v>
-      </c>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="139"/>
+      <c r="D30" s="145" t="s">
+        <v>239</v>
+      </c>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="147"/>
     </row>
     <row r="31" spans="2:9" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="120" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="121"/>
-      <c r="D31" s="160" t="s">
-        <v>230</v>
-      </c>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="162"/>
+      <c r="B31" s="149" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="150"/>
+      <c r="D31" s="166" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="168"/>
     </row>
     <row r="32" spans="2:9" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="122"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="164"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="164"/>
-      <c r="I32" s="165"/>
+      <c r="B32" s="151"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="169"/>
+      <c r="E32" s="170"/>
+      <c r="F32" s="170"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="171"/>
     </row>
     <row r="33" spans="2:9" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="122"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="164"/>
-      <c r="F33" s="164"/>
-      <c r="G33" s="164"/>
-      <c r="H33" s="164"/>
-      <c r="I33" s="165"/>
+      <c r="B33" s="151"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="170"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="171"/>
     </row>
     <row r="34" spans="2:9" ht="25.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="122"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="164"/>
-      <c r="F34" s="164"/>
-      <c r="G34" s="164"/>
-      <c r="H34" s="164"/>
-      <c r="I34" s="165"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="152"/>
+      <c r="D34" s="169"/>
+      <c r="E34" s="170"/>
+      <c r="F34" s="170"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="171"/>
     </row>
     <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="122"/>
-      <c r="C35" s="123"/>
-      <c r="D35" s="163"/>
-      <c r="E35" s="166"/>
-      <c r="F35" s="166"/>
-      <c r="G35" s="166"/>
-      <c r="H35" s="166"/>
-      <c r="I35" s="165"/>
+      <c r="B35" s="151"/>
+      <c r="C35" s="152"/>
+      <c r="D35" s="169"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="172"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="171"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="113" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C36" s="114"/>
       <c r="D36" s="114"/>
@@ -6408,27 +6408,17 @@
       <c r="I37" s="118"/>
     </row>
     <row r="66" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E66" s="167" t="s">
-        <v>225</v>
-      </c>
-      <c r="F66" s="167"/>
+      <c r="E66" s="173" t="s">
+        <v>224</v>
+      </c>
+      <c r="F66" s="173"/>
     </row>
     <row r="67" spans="5:6" x14ac:dyDescent="0.3">
-      <c r="E67" s="167"/>
-      <c r="F67" s="167"/>
+      <c r="E67" s="173"/>
+      <c r="F67" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D14:I14"/>
     <mergeCell ref="B31:C35"/>
     <mergeCell ref="D31:I35"/>
     <mergeCell ref="B36:I37"/>
@@ -6443,6 +6433,16 @@
     <mergeCell ref="D28:I28"/>
     <mergeCell ref="D29:I29"/>
     <mergeCell ref="D30:I30"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D21:I21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D30" r:id="rId1"/>
@@ -6471,310 +6471,310 @@
   <sheetData>
     <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="16"/>
     </row>
     <row r="9" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="C9" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="D9" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="67"/>
+    </row>
+    <row r="10" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="67"/>
-    </row>
-    <row r="10" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="177" t="s">
+      <c r="B10" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="C10" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="D10" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="E10" s="56" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="174"/>
+      <c r="B11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="56" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="177"/>
-      <c r="B11" s="23" t="s">
+      <c r="C11" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="174"/>
+      <c r="B12" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="79" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="174"/>
+      <c r="B13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D11" s="62" t="s">
-        <v>208</v>
-      </c>
-      <c r="E11" s="57" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="177"/>
-      <c r="B12" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="79" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="177"/>
-      <c r="B13" s="23" t="s">
-        <v>37</v>
-      </c>
       <c r="C13" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="105.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="D14" s="62" t="s">
+      <c r="B15" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="78" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="174"/>
+      <c r="B16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="E16" s="78" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="174"/>
+      <c r="B17" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="E17" s="78" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="174" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="175" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="174" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="179" t="s">
         <v>209</v>
       </c>
-      <c r="E14" s="57" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="177" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="78" t="s">
-        <v>236</v>
-      </c>
-      <c r="E15" s="78" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="177"/>
-      <c r="B16" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="E16" s="78" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="177"/>
-      <c r="B17" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="78" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="177" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="182" t="s">
+      <c r="E18" s="180" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="174"/>
+      <c r="B19" s="175"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="181"/>
+    </row>
+    <row r="20" spans="1:5" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="174"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="174"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="181"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="174"/>
+      <c r="B21" s="175"/>
+      <c r="C21" s="174"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="182"/>
+    </row>
+    <row r="22" spans="1:5" ht="5.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="174"/>
+      <c r="B22" s="175"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="57"/>
+    </row>
+    <row r="23" spans="1:5" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="174"/>
+      <c r="B23" s="175"/>
+      <c r="C23" s="174"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="57"/>
+    </row>
+    <row r="24" spans="1:5" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="174"/>
+      <c r="B24" s="175"/>
+      <c r="C24" s="174"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="57"/>
+    </row>
+    <row r="25" spans="1:5" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="174"/>
+      <c r="B25" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="177" t="s">
-        <v>233</v>
-      </c>
-      <c r="D18" s="178" t="s">
+      <c r="C25" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="E18" s="179" t="s">
+      <c r="E25" s="57" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="177"/>
-      <c r="B19" s="182"/>
-      <c r="C19" s="177"/>
-      <c r="D19" s="178"/>
-      <c r="E19" s="180"/>
-    </row>
-    <row r="20" spans="1:5" ht="61.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="177"/>
-      <c r="B20" s="182"/>
-      <c r="C20" s="177"/>
-      <c r="D20" s="178"/>
-      <c r="E20" s="180"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="177"/>
-      <c r="B21" s="182"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="181"/>
-    </row>
-    <row r="22" spans="1:5" ht="5.4" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="177"/>
-      <c r="B22" s="182"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="178"/>
-      <c r="E22" s="57"/>
-    </row>
-    <row r="23" spans="1:5" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="177"/>
-      <c r="B23" s="182"/>
-      <c r="C23" s="177"/>
-      <c r="D23" s="178"/>
-      <c r="E23" s="57"/>
-    </row>
-    <row r="24" spans="1:5" ht="13.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="177"/>
-      <c r="B24" s="182"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="178"/>
-      <c r="E24" s="57"/>
-    </row>
-    <row r="25" spans="1:5" ht="59.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="177"/>
-      <c r="B25" s="23" t="s">
+    <row r="26" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="174"/>
+      <c r="B26" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C26" s="21" t="s">
         <v>204</v>
       </c>
-      <c r="D25" s="62" t="s">
+      <c r="D26" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E26" s="57" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="177"/>
-      <c r="B26" s="23" t="s">
+    <row r="27" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="E26" s="57" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="177" t="s">
+      <c r="B27" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="C27" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="E27" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="58" t="s">
-        <v>170</v>
-      </c>
     </row>
     <row r="28" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="177"/>
+      <c r="A28" s="174"/>
       <c r="B28" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="22"/>
       <c r="E28" s="23"/>
     </row>
     <row r="29" spans="1:5" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="177"/>
+      <c r="A29" s="174"/>
       <c r="B29" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C29" s="23">
         <v>1</v>
@@ -6788,36 +6788,36 @@
     </row>
     <row r="30" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E30" s="79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="176" t="s">
-        <v>229</v>
-      </c>
-      <c r="B31" s="176"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
+      <c r="A31" s="178" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" s="178"/>
+      <c r="C31" s="178"/>
+      <c r="D31" s="178"/>
+      <c r="E31" s="178"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="176"/>
-      <c r="B32" s="176"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="176"/>
-      <c r="E32" s="176"/>
+      <c r="A32" s="178"/>
+      <c r="B32" s="178"/>
+      <c r="C32" s="178"/>
+      <c r="D32" s="178"/>
+      <c r="E32" s="178"/>
     </row>
     <row r="35" spans="2:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="68"/>
@@ -7006,15 +7006,15 @@
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="68"/>
-      <c r="C72" s="175" t="s">
-        <v>228</v>
-      </c>
-      <c r="D72" s="175"/>
+      <c r="C72" s="177" t="s">
+        <v>227</v>
+      </c>
+      <c r="D72" s="177"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="68"/>
-      <c r="C73" s="175"/>
-      <c r="D73" s="175"/>
+      <c r="C73" s="177"/>
+      <c r="D73" s="177"/>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="69"/>
@@ -7027,37 +7027,32 @@
       <c r="D75" s="69"/>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C97" s="174" t="s">
-        <v>232</v>
-      </c>
-      <c r="D97" s="174"/>
+      <c r="C97" s="176" t="s">
+        <v>231</v>
+      </c>
+      <c r="D97" s="176"/>
       <c r="E97" s="80"/>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C98" s="174"/>
-      <c r="D98" s="174"/>
+      <c r="C98" s="176"/>
+      <c r="D98" s="176"/>
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99" s="77"/>
       <c r="D99" s="77"/>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C119" s="174" t="s">
-        <v>248</v>
-      </c>
-      <c r="D119" s="174"/>
+      <c r="C119" s="176" t="s">
+        <v>247</v>
+      </c>
+      <c r="D119" s="176"/>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C120" s="174"/>
-      <c r="D120" s="174"/>
+      <c r="C120" s="176"/>
+      <c r="D120" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A26"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="A27:A29"/>
     <mergeCell ref="C119:D120"/>
     <mergeCell ref="C72:D73"/>
     <mergeCell ref="A31:E32"/>
@@ -7065,6 +7060,11 @@
     <mergeCell ref="D18:D24"/>
     <mergeCell ref="E18:E21"/>
     <mergeCell ref="C97:D98"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A26"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="A27:A29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
